--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4007.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4007.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.463566168953804</v>
+        <v>4.433413505554199</v>
       </c>
       <c r="B1">
-        <v>2.531732626450349</v>
+        <v>5.007958889007568</v>
       </c>
       <c r="C1">
-        <v>3.206701911012837</v>
+        <v>6.829205989837646</v>
       </c>
       <c r="D1">
-        <v>3.655211124634034</v>
+        <v>9.128503799438477</v>
       </c>
       <c r="E1">
-        <v>2.022371183652115</v>
+        <v>4.804558277130127</v>
       </c>
     </row>
   </sheetData>
